--- a/projectdata.xlsx
+++ b/projectdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,8 +499,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"‘재료’를 전공하며 나의 가치를 증명하다"
+          <t xml:space="preserve">
+"‘재료’를 전공하며 나의 가치를 증명하다"  제조업은 우리나라 경제의 주요 성장 기반이며 특히, 소재부품의 기술력은 국가 경쟁력과도 직결되므로 소재기술의 중요성은 더욱 커지고 있습니다. 한국산업단지공단은 국내 핵심 소재부품의 글로벌 경쟁력을 키우고 시장 변화에 대응하기 위해 산업의 융복합화, 스마트화 등 고부가가치 소재부품을 개발하는 데 지원을 아끼지 않고 있습니다. 산업단지의 70% 이상을 이루는 소재부품기업의 산업 활동을 지원하면서 내 가치를 증명하고, 산단에 입주한 소재부품기업의 핵심 기술력을 강화하고자 한국산업단지공단의 소재 직무를 선택하였습니다.아쉬운점 1  입사 후 국가의 근간 사업인 제조업 시장의 경쟁력을 강화하는 데 최선을 다하겠습니다. 단기적으로는 산단 내에 입주한 소재부품장비 기업을 분석하고 정책과제의 진행 현황을 파악하겠습니다. 궁극적으로 소재부품기술의 대외 의존성을 낮춰 국가의 소재기술 혁신을 주도하는 인재가 되겠습니다.아쉬운점 2 글자수 474자831Byte
 </t>
         </is>
@@ -525,8 +525,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"직접 만든다는 것"
+          <t xml:space="preserve">
+"직접 만든다는 것"  실습을 위해 콤부차를 조사하였습니다. 한정된 자료에서 최대한 조사했지만, 자세한 공정은 알 수 없었습니다. 좋은 결과를 도출하기 위해선 철저한 계획이 중요하다 생각돼 제조사, 제조공장에 문의하여 부원료 선택조건, 발효시간 등의 부분적인 답변을 들음으로 초안을 계획할 수 있었습니다. 이후 차 제조회사의 개발 업무에서 두 원료를 조합해 제품을 개발하는 업무에 참여했는데, 두 원료를 섞으면서 각각의 특색이 사라지는 문제가 있었습니다. 두 원료가 활성을 가지는 당도와 산도가 극과 극이었기 때문이었는데, 이전 실습을 위해 공정 조사를 문의할 때 조합이 좋을 것 같은데 왜 사용을 하지 않는지에 대한 답변을 실제로 경험하게 된 상황이었습니다. 두 원료의 황금비율을 찾는 것과 동시에 맛, 컨셉, 안정성 또한 유지하려 노력했습니다. 배합비를 수정하고 관능 검사하는 과정을 반복하면서 혀가 쓴맛을 즐기게 될 때쯤, 제품의 완성도가 갖춰져 두가지 원료를 조화롭게 느낄 수 있었습니다. 그리고 전화로 들었던 한계를 해결하는 듯한 성취감 또한 느꼈습니다. 아쉬운점 1  소비자 입장에서 왜 맛있는 두가지를 섞어 팔지 않는지에 대해 의구심을 가졌습니다. 하지만 식품을 전공하면서 의구심에 대한 답을 배우고, 개발을 하면서 해결방안을 찾았습니다. 주변을 둘러보면 많은 소비자들이 자신들이 자신이 원하는 제품을 기다리는 모습을 볼 수 있습니다. 모든 소비자가 식품을 전공하고 개발할 수 없기에 누군가가 소비자를 위해 제품을 만들어야 합니다. 그리고 저는 제가 얻은 지식과 경험으로 소비자를 위한 제품을 만들기 위해 노력하겠습니다.아쉬운점 2 글자수 800자1,381Byte
 </t>
         </is>
@@ -551,13 +551,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-`전지적 참견 시점`
- 영업관리 직무는 BGF리테일의 점포 관리를 위한 매니저라고 생각합니다. 시청자의 사랑을 받는 유명 인기연예인은 유능한 매니저가 뒷받침되어야 만들어지는 것처럼, SC 직무는 시장, 점포운영, 트렌드 등을 분석하여 BGF리테일의 점포가 고객의 사랑을 받을 수 있도록 최선을 다해 지원하는 직무입니다.좋은점 1  `Be Good Fact : 신뢰를 주는 소통`
- 신뢰를 주는 소통을 할 줄 알며, 이를 통해 효율적인 SC 직무 수행이 가능하다고 생각합니다. 학사 과정 중, 신뢰감을 주는 정보전달로 효율적인 업무 수행을 경험했습니다.
-아쉬운점 1 팀 활동 시, 많은 시간이 발표 전 자료의 객관성과 사실을 확인하는 과정에 들었고, 부정확한 정보로 팀원 간 갈등을 경험했습니다. 이후, 자료를 일목요연하게 정리하고, 객관적인 사실과 명확한 출처를 밝혀 전달했습니다. 확실한 자료조사는 많은 시간을 단축했고, 질의·응답까지 완벽하게 답변하는 높은 수준의 발표를 만들었습니다. 또한, 팀원 간 형성된 신뢰감은 이후 활동에서 좋은 효율성을 보였습니다.
- 이처럼, 설득력 있는 정확한 자료조사와 분석 역량은 점주와 신뢰감을 형성하고, 장기적으로 좋은 시너지를 발휘할 수 있다고 생각합니다.     아쉬운점 2  '경험으로 만드는 최고의 교본.'
- 단기적인 목표는 직영점 근무 시, 해당 점포 상권 분석을 철저히 하고 도전적인 전략을 구사하며 더욱 다양한 현장 경험을 쌓을 계획입니다. 또한, 재고품을 최소화하기 위해, 점주님과 협업으로 효과적인 POP 전략을 구사할 계획입니다. 또한, 이후, CVS산업 특성상, 다양한 상권에 다양한 점포가 있고, 다양한 점포를 담당해야 하는 SC 업무를 위해, 시장분석부터 영업관리 경험을 분석, 정리, 빅데이터화해 장기적으로 업무의 효율을 높이겠습니다. 
+          <t xml:space="preserve">
+`전지적 참견 시점`+ 영업관리 직무는 BGF리테일의 점포 관리를 위한 매니저라고 생각합니다. 시청자의 사랑을 받는 유명 인기연예인은 유능한 매니저가 뒷받침되어야 만들어지는 것처럼, SC 직무는 시장, 점포운영, 트렌드 등을 분석하여 BGF리테일의 점포가 고객의 사랑을 받을 수 있도록 최선을 다해 지원하는 직무입니다.좋은점 1  `Be Good Fact : 신뢰를 주는 소통`+ 신뢰를 주는 소통을 할 줄 알며, 이를 통해 효율적인 SC 직무 수행이 가능하다고 생각합니다. 학사 과정 중, 신뢰감을 주는 정보전달로 효율적인 업무 수행을 경험했습니다.+아쉬운점 1 팀 활동 시, 많은 시간이 발표 전 자료의 객관성과 사실을 확인하는 과정에 들었고, 부정확한 정보로 팀원 간 갈등을 경험했습니다. 이후, 자료를 일목요연하게 정리하고, 객관적인 사실과 명확한 출처를 밝혀 전달했습니다. 확실한 자료조사는 많은 시간을 단축했고, 질의·응답까지 완벽하게 답변하는 높은 수준의 발표를 만들었습니다. 또한, 팀원 간 형성된 신뢰감은 이후 활동에서 좋은 효율성을 보였습니다.+ 이처럼, 설득력 있는 정확한 자료조사와 분석 역량은 점주와 신뢰감을 형성하고, 장기적으로 좋은 시너지를 발휘할 수 있다고 생각합니다.     아쉬운점 2  '경험으로 만드는 최고의 교본.'+ 단기적인 목표는 직영점 근무 시, 해당 점포 상권 분석을 철저히 하고 도전적인 전략을 구사하며 더욱 다양한 현장 경험을 쌓을 계획입니다. 또한, 재고품을 최소화하기 위해, 점주님과 협업으로 효과적인 POP 전략을 구사할 계획입니다. 또한, 이후, CVS산업 특성상, 다양한 상권에 다양한 점포가 있고, 다양한 점포를 담당해야 하는 SC 업무를 위해, 시장분석부터 영업관리 경험을 분석, 정리, 빅데이터화해 장기적으로 업무의 효율을 높이겠습니다.  아쉬운점 3 글자수 895자1,492Byte
 </t>
         </is>
@@ -583,8 +583,8 @@
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-16살에 처음 회계를 접하고 흥미를 느껴 뚜렷한 진로 방향을 형성했습니다.
-기초회계 이론부터 꼼꼼히 배워서 그 결과 전산회계 1급, FAT 1급, 전산회계운용사 2급 등 전문 자격증들을 취득하였습니다. 자격증뿐만 아니라 각종 회계, 세무 대회에도 출전하였습니다. 사단법인 한국OOOOOO가 주최한 OOOOOO OOO 대회에서 2016년 7월 회계 관리 부문 장려상, 2017년 7월 세무회계 부문 국회의원상을 받는 좋은 결과를 얻었습니다. 또한, 2016년 11월 교내 글로벌비즈니스 경진대회에서 컴퓨터활용능력 부문 은상(2위)을 차지하며 컴퓨터활용능력도 높여갔습니다. 회계에 대한 확신은 좋은 결과로 돌아왔습니다. 
+16살에 처음 회계를 접하고 흥미를 느껴 뚜렷한 진로 방향을 형성했습니다.+기초회계 이론부터 꼼꼼히 배워서 그 결과 전산회계 1급, FAT 1급, 전산회계운용사 2급 등 전문 자격증들을 취득하였습니다. 자격증뿐만 아니라 각종 회계, 세무 대회에도 출전하였습니다. 사단법인 한국OOOOOO가 주최한 OOOOOO OOO 대회에서 2016년 7월 회계 관리 부문 장려상, 2017년 7월 세무회계 부문 국회의원상을 받는 좋은 결과를 얻었습니다. 또한, 2016년 11월 교내 글로벌비즈니스 경진대회에서 컴퓨터활용능력 부문 은상(2위)을 차지하며 컴퓨터활용능력도 높여갔습니다. 회계에 대한 확신은 좋은 결과로 돌아왔습니다.   더 전문성을 갖추기 위해 교내 전공동아리인 ‘세무동아리’에 입단하여 부원들과 방과 후에 매일 늦은 시간까지 회계, 세무 지식을 늘려갔습니다. 상업 고등학교에 다니며 원가 회계, 상업경제, 금융 일반, 사무관리실무, 회계 원리, 회계실무, 세무 실무, 회계 정보처리시스템, 증권 거래 업무, 창구 사무, 기업 자원 통합 관리 등 회계와 금융경제 과목을 수강했고 성취도 또한 A와 B를 받을 만큼 우수했습니다. 전공지식을 더 쌓고자 대학교 세무회계과에 진학하여 심화한 회계 배웠습니다. 2년 동안 회계 원리, 전산회계, 전산세무 회계, 세법 개론, ERP 회계실무는 A+를 놓친 적이 없고, 법인세신고 실무, 중학 소득세신고 실무, 부가세신고 실무도 모두 A 학점을 취득했습니다. 제가 준비해 온 것들이 SIMPAC 재무회계 직종의 주요 직무들과 적합하다고 생각하여 지원하게 되었습니다. 오랜 시간 단단하게 쌓아온 전문지식으로 SIMPAC에 입사해 실무 전문가로서의 역량을 키우겠습니다. 좋은점 1 글자수 845자1,401Byte
 </t>
         </is>
@@ -610,8 +610,8 @@
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-먼저 한국항공우주산업(이하 KAI)에 특별한 관심을 가지게 된 이유는 2019 OOOOOOOOO에서 KAI 사의 부스를 접하고 난 뒤였습니다. 저는 위 대회에서 "국방과학기술을 활용한 창업경진대회"에 팀장으로 참여해 151개 팀 중 6위로 입상한 경험이 있습니다. 창업경진대회 부스를 운용하면서 잠시 쉬는 시간 짬을 내어 KAI 사의 한국형 전투기 사업과 소형무장 헬기를 보면서 기계공학도로서, 또 국방과학기술을 활용해 창업을 준비하는 입장으로서, 방위산업의 한 축을 담당하는 KAI에 입사해 저의 능력을 펼치는 꿈을 꾸었고 이렇게 기회가 찾아오게 되었습니다.
-좋은점 1 웅장한 부스를 자랑하는 KAI 사에 관심이 생겨 대회 중간중간 검색을 통해 정보를 찾았습니다. 군용기 중심의 방산 및 완제기 수출의 방위산업만 담당하는 것이 아니라, 민항기의 양산과 기체 부품, 정비 및 개조를 담당하는 민항기 운용의 MRO 사업과 성능개량사업 또한 있음을 알게 되었습니다. 추가로, 비행 방식에 따라 고정익(일반적인 비행기), 회전익(헬기 등) 항공기 등으로 구분을 해놓았고 무인항공기 사업분야를 따로 정립한 것을 보아 확실히 무인항공기 사업이 미래 먹거리가 될 것임을 엿 볼 수 있었습니다. 
+먼저 한국항공우주산업(이하 KAI)에 특별한 관심을 가지게 된 이유는 2019 OOOOOOOOO에서 KAI 사의 부스를 접하고 난 뒤였습니다. 저는 위 대회에서 "국방과학기술을 활용한 창업경진대회"에 팀장으로 참여해 151개 팀 중 6위로 입상한 경험이 있습니다. 창업경진대회 부스를 운용하면서 잠시 쉬는 시간 짬을 내어 KAI 사의 한국형 전투기 사업과 소형무장 헬기를 보면서 기계공학도로서, 또 국방과학기술을 활용해 창업을 준비하는 입장으로서, 방위산업의 한 축을 담당하는 KAI에 입사해 저의 능력을 펼치는 꿈을 꾸었고 이렇게 기회가 찾아오게 되었습니다.+좋은점 1 웅장한 부스를 자랑하는 KAI 사에 관심이 생겨 대회 중간중간 검색을 통해 정보를 찾았습니다. 군용기 중심의 방산 및 완제기 수출의 방위산업만 담당하는 것이 아니라, 민항기의 양산과 기체 부품, 정비 및 개조를 담당하는 민항기 운용의 MRO 사업과 성능개량사업 또한 있음을 알게 되었습니다. 추가로, 비행 방식에 따라 고정익(일반적인 비행기), 회전익(헬기 등) 항공기 등으로 구분을 해놓았고 무인항공기 사업분야를 따로 정립한 것을 보아 확실히 무인항공기 사업이 미래 먹거리가 될 것임을 엿 볼 수 있었습니다.   KAI에는 또 협력회사 교육지원제도가 있는 것을 보았습니다. 협력회사들에게 맞춤형 교육과 전문기술 인력 양성을 위한 제도로써, 산업의 파이가 중요한  항공우주산업 업계의 특성을 잘 활용한 제도라고 생각합니다. 심지어 작년 상반기에는 4억 원이 넘는 포상금을 주는 등, KAI 사의 사업 이념은 올바르게 가고 있다고 생각합니다.좋은점 2 글자수 789자1,324Byte
 </t>
         </is>
@@ -637,7 +637,7 @@
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-증권업은 데이터 기반의 전략과 통찰로 고객의 안정적인 경제적 삶을 보장해주기에 금융인이 되길 희망하며 경영학을 전공했습니다. IT직무로 진로를 결정하면서 증권업에서 데이터 분석과 AI를 기반으로 고객 일상과 하나된 고객 친화적인 비즈니스 디지털 플랫폼을 만드는 꿈을 키워왔습니다.
+증권업은 데이터 기반의 전략과 통찰로 고객의 안정적인 경제적 삶을 보장해주기에 금융인이 되길 희망하며 경영학을 전공했습니다. IT직무로 진로를 결정하면서 증권업에서 데이터 분석과 AI를 기반으로 고객 일상과 하나된 고객 친화적인 비즈니스 디지털 플랫폼을 만드는 꿈을 키워왔습니다. 한국투자증권은 저의 경영 도메인 기반 빅데이터 분석 및 AI 구현 역량과 SW 앱 개발 역량을 통해 당사의 한국투자와 미니스탁과 뱅키스 핀테크 서비스와 온라인 금융 상품권과 인공지능 리서치 AI 에어 서비스 개선에 기여할 수 있기에 지원했습니다좋은점 1  글자수 296자509Byte
 </t>
         </is>
@@ -662,10 +662,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"소통을 통한 점주와의 상생"
- SC 직무의 역할은 점주와의 동반사업자라고 생각합니다. 편의점 운영에 대한 조언뿐 아니라 점주와 본사의 징검다리가 되고, 점포의 환경개선활동, 매출, 상권, 고객 데이터 분석까지 점포의 활동에 관여하기 때문입니다. 그렇기에 점주와 조력자 사이 보다는 더 깊은 사업상 파트너로 생각합니다. 아쉬운점 1저는 관계구축에 좋은 사교성을 가지고 있습니다. 대학교 입학 후 총동아리연합회 홍보부장을 맡아 동아리 회장들과 소통을 주로 했습니다. 
- 저의 업무는 연합회에서 행사를 진행하거나, 지원사업 등을 소개할 때 발표를 하고, 동아리 회장단과 소통을 통해 필요한 물품, 건의 사항을 종합하는 것이었습니다. 그중 동아리 지원사업을 할 때 동아리마다 고충을 파악하기 위해 각 동아리의 특성을 파악했습니다. 또한, 대화하면서 동아리 특성에 따른 대화 주제를 이끌어가며 깊은 유대를 형성하면서 동아리별 특징, 애로사항을 잘 알 수 있었습니다. 추후 SC 직무에 임했을 때, 특성을 파악하여 소통하는 능력을 통해 많은 점포의 점주와 편한 분위기를 조성하여 특성에 맞는 전략을 제시할 것입니다. 이를 통해 궁극적으로 점포의 매출향상을 이끌수 있는 인재가 되겠습니다.아쉬운점 2  "역량을 살린 경력개발"
+          <t xml:space="preserve">
+"소통을 통한 점주와의 상생"+ SC 직무의 역할은 점주와의 동반사업자라고 생각합니다. 편의점 운영에 대한 조언뿐 아니라 점주와 본사의 징검다리가 되고, 점포의 환경개선활동, 매출, 상권, 고객 데이터 분석까지 점포의 활동에 관여하기 때문입니다. 그렇기에 점주와 조력자 사이 보다는 더 깊은 사업상 파트너로 생각합니다. 아쉬운점 1저는 관계구축에 좋은 사교성을 가지고 있습니다. 대학교 입학 후 총동아리연합회 홍보부장을 맡아 동아리 회장들과 소통을 주로 했습니다. + 저의 업무는 연합회에서 행사를 진행하거나, 지원사업 등을 소개할 때 발표를 하고, 동아리 회장단과 소통을 통해 필요한 물품, 건의 사항을 종합하는 것이었습니다. 그중 동아리 지원사업을 할 때 동아리마다 고충을 파악하기 위해 각 동아리의 특성을 파악했습니다. 또한, 대화하면서 동아리 특성에 따른 대화 주제를 이끌어가며 깊은 유대를 형성하면서 동아리별 특징, 애로사항을 잘 알 수 있었습니다. 추후 SC 직무에 임했을 때, 특성을 파악하여 소통하는 능력을 통해 많은 점포의 점주와 편한 분위기를 조성하여 특성에 맞는 전략을 제시할 것입니다. 이를 통해 궁극적으로 점포의 매출향상을 이끌수 있는 인재가 되겠습니다.아쉬운점 2  "역량을 살린 경력개발"  SC 직무를 통해 점포관리에 대한 전반적인 것을 배운 후 점포설비 쪽으로 경력을 쌓고 싶습니다. 현장실습체험을 통해 Inventor를 사용하여 3D 스케치와 도면작업을 배운 경험이 있습니다. 당시 소형전자카트의 부품스케치, 시제품 제작 시 도면해석을 통한 조립을 주 업무로 했습니다. 이를 통해 도면분석에 대한 역량을 쌓았으며, 산업안전기사를 취득하였기에, 점포설비에 이러한 역량을 투자해 경력을 개발하고 싶습니다.아쉬운점 3 글자수 855자1,457Byte
 </t>
         </is>
@@ -690,9 +690,9 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"우리나라 경기를 이끄는 반도체 산업의 기초에서 일하고 싶습니다"
- 저는 기초산업에 매력을 느껴 컴퓨터응용기계설계를 전공했습니다. 회사에서 일할 때 눈에 보이는 성과를 내며 성취감을 가지는 저를 발견할 수 있었습니다. 기초를 다지는 업무에 흥미를 느꼈고 또 저의 도면으로 인해 계약할 수 있었다는 이야기를 전해 들었을 때 뿌듯함을 느꼈습니다. 아쉬운점 1반도체는 인공지능, 자율주행 자동차, 드론 등 4차 산업혁명의 기반기술을 구축하는 핵심부품입니다. 좋은점 1  실리콘 웨이퍼는 반도체 산업의 기초가 되는 중요한 부품입니다. 그리고 SK실트론은 반도체의 주재료인 실리콘 웨이퍼 시장에서 상위 회사 중 유일한 국내 회사이며 최고의 기술력을 바탕으로 국내뿐 아니라 해외에도 제품을 공급하고 있습니다. 저는 세계 최고 수준인 대한민국의 반도체 기초산업의 중심인 SK실트론에서 업무를 수행한다면 더욱 큰 성취감과 원동력을 가지고 역량을 발휘할 수 있을 것 같아 지원했습니다. 더 나아가 반도체의 기초인 실리콘 웨이퍼를 검사하여 고객사에 불량품이 전달되어 큰 문제로 발생하는 것을 방지하고 싶습니다. 아쉬운점 1  "주도면밀한 태도로 검사 분야에서 제 역량을 발휘하고 싶습니다."
+          <t xml:space="preserve">
+"우리나라 경기를 이끄는 반도체 산업의 기초에서 일하고 싶습니다"+ 저는 기초산업에 매력을 느껴 컴퓨터응용기계설계를 전공했습니다. 회사에서 일할 때 눈에 보이는 성과를 내며 성취감을 가지는 저를 발견할 수 있었습니다. 기초를 다지는 업무에 흥미를 느꼈고 또 저의 도면으로 인해 계약할 수 있었다는 이야기를 전해 들었을 때 뿌듯함을 느꼈습니다. 아쉬운점 1반도체는 인공지능, 자율주행 자동차, 드론 등 4차 산업혁명의 기반기술을 구축하는 핵심부품입니다. 좋은점 1  실리콘 웨이퍼는 반도체 산업의 기초가 되는 중요한 부품입니다. 그리고 SK실트론은 반도체의 주재료인 실리콘 웨이퍼 시장에서 상위 회사 중 유일한 국내 회사이며 최고의 기술력을 바탕으로 국내뿐 아니라 해외에도 제품을 공급하고 있습니다. 저는 세계 최고 수준인 대한민국의 반도체 기초산업의 중심인 SK실트론에서 업무를 수행한다면 더욱 큰 성취감과 원동력을 가지고 역량을 발휘할 수 있을 것 같아 지원했습니다. 더 나아가 반도체의 기초인 실리콘 웨이퍼를 검사하여 고객사에 불량품이 전달되어 큰 문제로 발생하는 것을 방지하고 싶습니다. 아쉬운점 1  "주도면밀한 태도로 검사 분야에서 제 역량을 발휘하고 싶습니다."  저는 이전 회사에서 실적 1등을 한 경험이 있습니다. 제가 맡은 업무는 엘리베이터 승인도를 작성하고 검토하는 일이었습니다. 엘리베이터 승인도는 실수가 곧 불량으로 이어지기 때문에 도면에 오류가 있어서는 안 됩니다. 저는 도면을 큰 부분부터 작은 부분까지 놓치지 않고 검토하였으며 한번이 아닌 두세 번 확인하였기 때문에 좋은 실적이 나올 수 있었습니다. 위의 경험으로 미루어 보았을 때 저의 역량은 사소한 것도 다시 살펴보는 꼼꼼함과 맡은 바 임무를 충실히 하는 책임감이라고 생각합니다. 다음과 같은 역량을 검사 분야에서 가장 잘 발휘할 수 있을 것 같아 검사 분야에 지원하게 되었습니다. 좋은점 2 글자수 925자1,590Byte
 </t>
         </is>
@@ -718,8 +718,8 @@
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-의사소통에서 가장 중요한 것은 ‘상대방에게 나를 어떻게 이해시킬까?’가 중요하다고 생각합니다. 
- 과거 컴프레셔 건설장비 현장 경험을 통해 타 업체 직원과 효과적으로 소통한 경험이 있습니다. 당시 타 업체 직원은 저와 나이 차이가 크게 났기 때문에, 저와 의사소통하는 데에 어려움이 있을 것이라는 선입견이 있었습니다. 이런 상대방에게 어떻게 저의 의견을 정확히 전달할 수 있을지 고민했습니다. 그 결과 ‘나를 이해하려 하지 않는 상대방에게 어떤 방식으로 마음의 문을 열게 할 것인가?’에 중점을 두는 것으로 결론을 냈습니다.좋은점 1  그래서 첫 번째로 ‘경청’과 ‘칭찬’을 통해서 상대방 마음의 문을 열고, 두 번째로 제 의사를 표현할 때는 ‘명확하게 전달’했습니다. 이렇게 두 가지를 활용한 저만의 대화 방식은 저를 이해하려 하지 않았던 직원분과의 의사소통을 효과적으로 할 수 있도록 이끌었습니다. 그 결과 서로 원활하게 소통하며 전보다 작업을 신속하게 끝낼 수 있었습니다. 
+의사소통에서 가장 중요한 것은 ‘상대방에게 나를 어떻게 이해시킬까?’가 중요하다고 생각합니다. + 과거 컴프레셔 건설장비 현장 경험을 통해 타 업체 직원과 효과적으로 소통한 경험이 있습니다. 당시 타 업체 직원은 저와 나이 차이가 크게 났기 때문에, 저와 의사소통하는 데에 어려움이 있을 것이라는 선입견이 있었습니다. 이런 상대방에게 어떻게 저의 의견을 정확히 전달할 수 있을지 고민했습니다. 그 결과 ‘나를 이해하려 하지 않는 상대방에게 어떤 방식으로 마음의 문을 열게 할 것인가?’에 중점을 두는 것으로 결론을 냈습니다.좋은점 1  그래서 첫 번째로 ‘경청’과 ‘칭찬’을 통해서 상대방 마음의 문을 열고, 두 번째로 제 의사를 표현할 때는 ‘명확하게 전달’했습니다. 이렇게 두 가지를 활용한 저만의 대화 방식은 저를 이해하려 하지 않았던 직원분과의 의사소통을 효과적으로 할 수 있도록 이끌었습니다. 그 결과 서로 원활하게 소통하며 전보다 작업을 신속하게 끝낼 수 있었습니다.  아쉬운점 1 LH 공사 업무 중에도 연령대나 경험의 차이로 인해 의사소통 문제가 발생할 수 있습니다. 그러나 이러한 가치관을 바탕으로 나이나 경험과 관계없이 잘 융화될 수 있는 직원이 되겠습니다.                        글자수 597자1,025Byte
 </t>
         </is>
@@ -744,11 +744,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"마케팅에 대한 입체적 이해"
- 마케팅은 명확한 업무 성과를 바탕으로 가장 확실한 성취감을 느낄 수 있는 직무라는 점에서 매력적으로 느껴졌습니다. 충분한 성취감을 느낄 수 있을 때, 지치지 않고 성장할 수 있다고 생각하기 때문입니다. 아쉬운점 1  마케팅이란 철저한 시장조사 및 고객분석을 바탕으로 전략을 수립/실천함으로써 사업 전반에 기여하는 것입니다. 따라서 마케터의 필수 역량은 '분석 및 전략적 사고 역량'입니다. 저는 OO 기업에서 마케팅 인턴으로 근무하며 해당 역량을 키웠습니다.
- 첫 번째로, 기존 고객을 대상으로 뉴스레터를 작성하고 발송하며 고객관리 업무를 수행했습니다. 저는 매월 두 차례 뉴스레터를 발송하며 시간, 날짜, 콘텐츠별로 클릭률을 기록해왔습니다. 그리고 해당 데이터를 분석해서 뉴스레터의 클릭률을 높일 수 있는 전략을 수립했습니다. 그 결과 지난 분기 대비 약 13% 향상한 클릭률을 달성할 수 있었습니다.
- 두 번째로, 회사 블로그와 SNS 계정, 홈페이지 내 홍보센터 등의 온라인 채널을 활용해 마케팅 활동을 했습니다. 업계 혹은 회사 관련 이슈와 우수 고객 사례, 서비스 할인 행사 등의 내용을 바탕으로 카드뉴스를 제작하고 채널에 등록했습니다.
+          <t xml:space="preserve">
+"마케팅에 대한 입체적 이해"+ 마케팅은 명확한 업무 성과를 바탕으로 가장 확실한 성취감을 느낄 수 있는 직무라는 점에서 매력적으로 느껴졌습니다. 충분한 성취감을 느낄 수 있을 때, 지치지 않고 성장할 수 있다고 생각하기 때문입니다. 아쉬운점 1  마케팅이란 철저한 시장조사 및 고객분석을 바탕으로 전략을 수립/실천함으로써 사업 전반에 기여하는 것입니다. 따라서 마케터의 필수 역량은 '분석 및 전략적 사고 역량'입니다. 저는 OO 기업에서 마케팅 인턴으로 근무하며 해당 역량을 키웠습니다.+ 첫 번째로, 기존 고객을 대상으로 뉴스레터를 작성하고 발송하며 고객관리 업무를 수행했습니다. 저는 매월 두 차례 뉴스레터를 발송하며 시간, 날짜, 콘텐츠별로 클릭률을 기록해왔습니다. 그리고 해당 데이터를 분석해서 뉴스레터의 클릭률을 높일 수 있는 전략을 수립했습니다. 그 결과 지난 분기 대비 약 13% 향상한 클릭률을 달성할 수 있었습니다.+ 두 번째로, 회사 블로그와 SNS 계정, 홈페이지 내 홍보센터 등의 온라인 채널을 활용해 마케팅 활동을 했습니다. 업계 혹은 회사 관련 이슈와 우수 고객 사례, 서비스 할인 행사 등의 내용을 바탕으로 카드뉴스를 제작하고 채널에 등록했습니다.  구글 Analytics 프로그램을 통해 회사 웹사이트 방문자 추이를 기록하고, 고객의 검색 키워드 데이터를 분석했습니다. 이후 회사 웹사이트 접속을 증가시킬 수 있는 키워드를 선별해서 검색엔진 최적화를 진행했으며, 구글 Ads 프로그램을 통해 회사 웹사이트 광고를 등록했습니다. 위의 활동을 통해 웹사이트 방문자 수를 1분기 대비 60% 증가시켰습니다.아쉬운점 2 글자수 806자1,360Byte
 </t>
         </is>
@@ -773,9 +773,9 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"언제나 NEXT를 준비하는 기업"
- 현실에 안주하지 않고 끊임없는 성장을 추구하는 가치관이 IT 분야에서 시작해 금융 뿐 아니라 다양한 사업군의 서비스 개발을 통해 사회 구성원들에게 더 편리한 가치를전달하는 다우기술의 발자취에 부합한다고 생각해 지원하게 되었습니다.
+          <t xml:space="preserve">
+"언제나 NEXT를 준비하는 기업"+ 현실에 안주하지 않고 끊임없는 성장을 추구하는 가치관이 IT 분야에서 시작해 금융 뿐 아니라 다양한 사업군의 서비스 개발을 통해 사회 구성원들에게 더 편리한 가치를전달하는 다우기술의 발자취에 부합한다고 생각해 지원하게 되었습니다.  대학 시절을 보내면서 항상 새로운 목표를 세우고 달성하는 성취지향적 마인드를 갖췄습니다. 무에서 유를 만들어보고 싶은 개인적인 욕심과 사회에 더 나은 가치를 주는사람이 되자는 신념으로 여러 활동을 해왔습니다. 특히 지역 내 홍보가 미비한 체육시설과 소외되는 스포츠 종목을 홍보했던 창업 동아리 활동, 청년 금융이해도 향상과 노인 교통사고 감소를 목표로 진행했던 1년 간 사회변화 프로젝트 활동은 사회에 긍정적인 가치를 전하고 지속적으로 발전하는 기업에서 근무하는 것을 목표한 큰 계기가 되었습니다.아쉬운점 1  벤처 1세대부터 이제는 IT분야 대표 기업으로 성장한 다우기술의 비결은 끊임없는 도전과 동반 성장의 가치라고 확신합니다. 대표 계열사인 키움증권과 사람인처럼 금융소비자와 취업준비생 등 소비자에게 기존에 접하지 못한 서비스로 새로운 가치를 전하는 기업과의 동반 성장을 추구하는 다우기술의 일원으로서 다가오는 미래에 대한 변화를 두려워하지 않고 사회에 새로운 가치를 전하고자하는 저의 직업관을 실현해보고 싶습니다.아쉬운점 2 글자수 668자1,158Byte
 </t>
         </is>
@@ -800,9 +800,9 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"고객이 꿈을 이루도록 도와주는 은행"
- 저는 친구의 질문이었던 삶을 사는 이유를 찾지 못했었습니다. 그래서 꿈이라는 자체가 얼마나 귀중한 것인 것을 알기에 그 꿈을 이루기 위해 믿고 이용하는 고객들의 꿈을 지켜주고 싶다는 생각이 들었습니다. 저는 기업은행이 고객들의 현재, 미래의 꿈을 이뤄주는 은행이라고 생각을 합니다. 희망을 키우는 기업은행이라는 슬로건 속에서 제가 입행하게 된다면 제가 쌓은 다양한 경험들로 안전한 인프라운영, 서비스 구축 등에 이바지하고 고객들의 꿈을 지키고 실현하는 데 꼭 도움이 되고 싶습니다. 아쉬운점 1  저는 고객들의 꿈을 지켜주는 데 필요한 다양한 직무 역량을 갖고 있습니다. 안을 공부하며 화이트 박스 기반의 취약 소스코드 분석을 하려면 필요로 하기에 C.C ++, python, 어셈블리어 등 여러 가지 언어를 익혀야 했습니다. 그 결과 상당수의 프로그래밍 과목에서 좋은 성적을 얻을 수 있었고, 보안의 경우도 공격방법을 알아야 그에 대해 보안을 할 수 있어 큰 도움이 되었습니다. 교내 보안 동아리에도 들어가 동아리 스터디도 해보고 세미나 발표도 해보며 기술적인 부분에 관해 좀 더 자세히 알 수 있게 되었습니다. 
+          <t xml:space="preserve">
+"고객이 꿈을 이루도록 도와주는 은행"+ 저는 친구의 질문이었던 삶을 사는 이유를 찾지 못했었습니다. 그래서 꿈이라는 자체가 얼마나 귀중한 것인 것을 알기에 그 꿈을 이루기 위해 믿고 이용하는 고객들의 꿈을 지켜주고 싶다는 생각이 들었습니다. 저는 기업은행이 고객들의 현재, 미래의 꿈을 이뤄주는 은행이라고 생각을 합니다. 희망을 키우는 기업은행이라는 슬로건 속에서 제가 입행하게 된다면 제가 쌓은 다양한 경험들로 안전한 인프라운영, 서비스 구축 등에 이바지하고 고객들의 꿈을 지키고 실현하는 데 꼭 도움이 되고 싶습니다. 아쉬운점 1  저는 고객들의 꿈을 지켜주는 데 필요한 다양한 직무 역량을 갖고 있습니다. 안을 공부하며 화이트 박스 기반의 취약 소스코드 분석을 하려면 필요로 하기에 C.C ++, python, 어셈블리어 등 여러 가지 언어를 익혀야 했습니다. 그 결과 상당수의 프로그래밍 과목에서 좋은 성적을 얻을 수 있었고, 보안의 경우도 공격방법을 알아야 그에 대해 보안을 할 수 있어 큰 도움이 되었습니다. 교내 보안 동아리에도 들어가 동아리 스터디도 해보고 세미나 발표도 해보며 기술적인 부분에 관해 좀 더 자세히 알 수 있게 되었습니다.   관련 기업 대학생기자단이 되어 저학년 때부터 정보보안 필드에서 일어나는 일들을 많이 접해볼 수 있었습니다. 그리고 군대의 경우 자대에서 정보보호병을 보직 받아 NAC, UTM, 백신 서버 등 장비를 운영하여 군단 예하의 노드 및 PC 들을 관리 하였습니다. 이후에는 IT 프로젝트를 진행하면서 현직에 계신 멘토님과 함께 블루투스를 사용하는 IoT 장비, 디지털 사이니지의 취약점을 분석해 볼 수 있었습니다.  프로젝트의 경우에는 프로젝트의 성과를 인정받아 버그바운티와 감사장을 수여 받을 수 있었습니다. 또한, 관련 취약점 트리거 방법을 논문으로 작성해 OOOOOO학회 동계학술대회에서 우수 논문상, OOOOOO회에서 학부생 우수논문상을 받았습니다. 또한, OOOOOOOO에서 주최하는 'OO 보안 허점을 찾아라' 대회에 나가 최우수상을 취득하였습니다. 이 역량들을 갖고 안전한 서비스 운영을 하며 다양한 사람의 꿈을 이루는 것을 돕다 보면 저도 삶을 사는 이유를 찾을 수 있을 것이라 믿기에 기업은행에 지원하게 되었습니다.아쉬운점 2 글자수 1,110자1,870Byte
 </t>
         </is>
@@ -827,8 +827,8 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"대체 불가능한 기업"
+          <t xml:space="preserve">
+"대체 불가능한 기업"  저는 저소득층 중학생을 대상으로 교육봉사를 진행했습니다. 아이들에게 아낌없이 도움을 주려던 마음과는 달리, 넉넉하지 못한 동아리 예산으로 인해 수업 도중 전기가 나가는 일도 생겼습니다. 교육봉사를 마친 뒤 오히려 아이들에게 많은 것을 배울 수 있었고, 나눔의 진정한 가치를 되짚어보게 되었습니다. 전기 걱정 없이 마음껏 생활할 수 있는 환경을 만들어주고싶다는 생각이 들었고, '전기'와 관련된 한국전력공사에서 일하며 공공의 가치 증진을 위해 일하고 싶다는 꿈을 갖게 되었습니다. 한국전력공사의 전력거래를 꼼꼼히 분석하고, 국민에게 유익한 전력거래 정책으로 보답하고자 지원하였습니다.아쉬운점 1  한국전력공사의 사무직, 특히 영업 업무를 맡아 전력수요 및 전력거래를 분석하여 효율적인 전력 정책을 수립하여 한국전력공사 및 공공 이익 증대를 실현하겠습니다. 4년간 경영학을 전공하며 수행한 여러 국내외 사업 환경분석 프로젝트를 수행한 경험이 있습니다. 학우들을 대상으로 이벤트 사업을 운영하고, 신사업 발굴 프로젝트를 통해 해외 사업환경을 분석한 경험이 있습니다. 또한, 2달 간의 빅데이터 전문가 양성 과정을 이수하며 관련 자격증인 ADsP을 취득했습니다. 빅데이터에 대한 이해와 국내외 사업분석 경험을 바탕으로 한국전력공사에 유리한 사업 영역을 파악하고, 다각도에서 사업 리스크를 관리하겠습니다.아쉬운점 2 글자수 681자1,180Byte
 </t>
         </is>
@@ -853,9 +853,9 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"품질에 대한 전공지식과 데이터 분석력"
- 제가 지원한 분야는 전동화/PT 분야의 품질 분석 직무입니다. 현재 자동차가 제 2의 주거공간으로 여겨짐에 따라 차량 내의 인포테인먼트 시스템 개발을 위해 힘쓰고 있습니다. 품질분석은 현재 현대자동차가 주력하고 있는 친환경 차들과 여러 가지 인포테인먼트 시스템의 시장 정보를 모니터링하여 주요한 문제들의 원인을 분석하여 해결하는 것을 목표로 합니다. 저는 전동화/PT 품질분석 직무가 소비자들이 가장 주력하고 있는 사업에 대한 품질을 다루는 직무이고, 현재 현대자동차를 집에서 소유하고 있기 때문에 소비자의 입장에서 다가갈 수 있어 지원하게 되었습니다.아쉬운점 1  저는 산업공학을 전공하며 전체적인 산업의 품질 분야에 대한 세부적인 지식을 갖추었습니다. 또한 통계학을 복수전공하여 데이터를 다루고 분석하는 방법을 익힐 수 있었습니다. R과 Python, SAS와 같은 분석 툴들을 이용하여 실제 데이터를 분석해보며, 데이터를 다룰 줄 아는 역량을 갖추었습니다. 일례로 저는 ‘딥러닝 기반 고장 데이터를 활용한 장비의 고장시점 예측’을 주제로 졸업 프로젝트를 진행하였고, 전체 3등이라는 우수한 성적을 거두었습니다. 
+          <t xml:space="preserve">
+"품질에 대한 전공지식과 데이터 분석력"+ 제가 지원한 분야는 전동화/PT 분야의 품질 분석 직무입니다. 현재 자동차가 제 2의 주거공간으로 여겨짐에 따라 차량 내의 인포테인먼트 시스템 개발을 위해 힘쓰고 있습니다. 품질분석은 현재 현대자동차가 주력하고 있는 친환경 차들과 여러 가지 인포테인먼트 시스템의 시장 정보를 모니터링하여 주요한 문제들의 원인을 분석하여 해결하는 것을 목표로 합니다. 저는 전동화/PT 품질분석 직무가 소비자들이 가장 주력하고 있는 사업에 대한 품질을 다루는 직무이고, 현재 현대자동차를 집에서 소유하고 있기 때문에 소비자의 입장에서 다가갈 수 있어 지원하게 되었습니다.아쉬운점 1  저는 산업공학을 전공하며 전체적인 산업의 품질 분야에 대한 세부적인 지식을 갖추었습니다. 또한 통계학을 복수전공하여 데이터를 다루고 분석하는 방법을 익힐 수 있었습니다. R과 Python, SAS와 같은 분석 툴들을 이용하여 실제 데이터를 분석해보며, 데이터를 다룰 줄 아는 역량을 갖추었습니다. 일례로 저는 ‘딥러닝 기반 고장 데이터를 활용한 장비의 고장시점 예측’을 주제로 졸업 프로젝트를 진행하였고, 전체 3등이라는 우수한 성적을 거두었습니다.   아쉬운점 2 이러한 저의 전공분야를 토대로 품질과 데이터 분야를 결합한 현대자동차의 전동화/PT 품질 분석 직무가 제게 적격이라고 판단하여 현대자동차에 지원하게 되었습니다.                        글자수 686자1,174Byte
 </t>
         </is>
@@ -905,9 +905,9 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"세밀한 분석력과 커뮤니케이션 능력"
- 저는 영문학과와 국제경영을 전공하여, 글쓰기, 소통 능력과 해외 경제 흐름에 대해 생각하는 연습을 해왔습니다. 그리고 글로벌 역량을 쌓기 위해 미국에서 학사 시절을 보내면서 다양한 문화와 사고방식을 이해하고 다양한 사람들과 협업하며 목적한 바를 이루기 위해 이해하고 배려하는 태도와 주어진 일에 열정을 다하는 태도를 길렀습니다. 또한, 국제 경영을 전공하며 국제 시장의 흐름과 사업을 배우기 위해 "국제 경제" 동아리 활동을 하였습니다. 저는 해외영업을 하는데 있어서 제가 가진 2가지 역량을 보여드리겠습니다.아쉬운점 1  첫째, 저는 경제학 강의를 수강하면서 창업하고 비즈니스를 분석하고 보고서를 작성했습니다. 저희는 김밥을 창업 아이템으로 정하고 창업을 위해 김밥 산업을 분석하고 저희가 선택한 지역의 상권을 분석했습니다. 적극적인 의사소통과 분석을 통해 완성한 보고서는 A를 받았고 저도 이 프로젝트를 진행하면서 리스크 관리와 세밀한 분석력을 키울 수 있었습니다.
+          <t xml:space="preserve">
+"세밀한 분석력과 커뮤니케이션 능력"+ 저는 영문학과와 국제경영을 전공하여, 글쓰기, 소통 능력과 해외 경제 흐름에 대해 생각하는 연습을 해왔습니다. 그리고 글로벌 역량을 쌓기 위해 미국에서 학사 시절을 보내면서 다양한 문화와 사고방식을 이해하고 다양한 사람들과 협업하며 목적한 바를 이루기 위해 이해하고 배려하는 태도와 주어진 일에 열정을 다하는 태도를 길렀습니다. 또한, 국제 경영을 전공하며 국제 시장의 흐름과 사업을 배우기 위해 "국제 경제" 동아리 활동을 하였습니다. 저는 해외영업을 하는데 있어서 제가 가진 2가지 역량을 보여드리겠습니다.아쉬운점 1  첫째, 저는 경제학 강의를 수강하면서 창업하고 비즈니스를 분석하고 보고서를 작성했습니다. 저희는 김밥을 창업 아이템으로 정하고 창업을 위해 김밥 산업을 분석하고 저희가 선택한 지역의 상권을 분석했습니다. 적극적인 의사소통과 분석을 통해 완성한 보고서는 A를 받았고 저도 이 프로젝트를 진행하면서 리스크 관리와 세밀한 분석력을 키울 수 있었습니다.  둘째, 커뮤니케이션 능력입니다. 축구동아리 주장 당시 동부 축구한인대회를 개최를 위해 타학교 주장들과 구장스탭들과 끊임없는 대화를 통해 의견을 수렴했고 성공적인 동부 축구 한인대회 3회연속 개최를 성공했습니다.아쉬운점 2  이러한 세밀한 분석력과 커뮤니케이션 능력으로 SIMPAC의 차별화된 방법으로 해외 사업에 안정적인 진출을 추진하고 유관 부서 및 실행조직과의 협업을 통해 시너지를 추구하여 SIMPAC의 세계지도를 완성하겠습니다. 저는 이러한 팀원들과 협업을 위해 소통능력을 기르기 위해 노력할 것입니다.아쉬운점 3 글자수 791자1,362Byte
 </t>
         </is>
@@ -932,9 +932,9 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-"소통과 행동으로 행복을 전하는 일"
- SC 직무는 본부와 가맹점포의 매출, 이익증대를 위해 점포경영 지도, 조언을 하며 이 과정에서 가맹점주 및 다양한 이해관계자들과 소통을 통해 업무를 진행합니다. 화려한 언변이 아닌, 진정성 있는 소통으로 상대방의 상황을 이해하고 합의점을 찾는 것이 중요합니다. 또한, 소통에서만 그치는 것이 아니라 매출을 극대화할 수 있는 점포 운영방안을 구체적인 행동으로 옮길 수 있어야 합니다. 이처럼 소통과 행동을 통해 점주에게는 '수익증대'의 행복을, 고객에게는 일상 가까이에서 느낄 수 있는 '만족'의 가치를 전하는 것이 SC 직무라고 생각합니다. 아쉬운점 1  "변화를 이끄는 능동적 태도"
+          <t xml:space="preserve">
+"소통과 행동으로 행복을 전하는 일"+ SC 직무는 본부와 가맹점포의 매출, 이익증대를 위해 점포경영 지도, 조언을 하며 이 과정에서 가맹점주 및 다양한 이해관계자들과 소통을 통해 업무를 진행합니다. 화려한 언변이 아닌, 진정성 있는 소통으로 상대방의 상황을 이해하고 합의점을 찾는 것이 중요합니다. 또한, 소통에서만 그치는 것이 아니라 매출을 극대화할 수 있는 점포 운영방안을 구체적인 행동으로 옮길 수 있어야 합니다. 이처럼 소통과 행동을 통해 점주에게는 '수익증대'의 행복을, 고객에게는 일상 가까이에서 느낄 수 있는 '만족'의 가치를 전하는 것이 SC 직무라고 생각합니다. 아쉬운점 1  "변화를 이끄는 능동적 태도"  SC 직무를 수행하는데 필요한 '능동적인 태도'를 가졌습니다. 카페에서 파트타이머로 근무하며 점포 매출과 고객 만족도를 높인 경험이 있습니다. 당시 카페는 초등학교 근처에 위치하여 학부모와 아이들이 주 고객층이었고, 주로 아이들의 입맛에 맞춰 주문이 이루어졌습니다. 이러한 고객 특성을 고려하여 캐릭터가 그려진 음료 및 케익을 주문하여 이를 아이들의 동선과 눈높이에 맞게 진열대 하단에 샘플 진열하였습니다. 이후 아이들의 많은 관심은 구매로 이어졌고 점포의 매출과 고객의 만족도까지 높일 수 있었습니다. 이처럼 적극적으로 변화의 요소를 찾는 능동적 태도는 점포와 관련된 다양한 현황을 분석하여 방향성을 제시해주는 SC 직무에서 큰 장점이 될 것입니다. 아쉬운점 2  입사 후, 전국 매출 1위 SC가 되는 것이 목표입니다. 담당 점포의 현재 상황과 특성을 적극적으로 파악하고 차별화된 판매 전략 수립을 통해 매출을 극대화하겠습니다. 또한, 정량적 평가뿐 아니라 가맹점주에게 신뢰받을 수 있는 SC로 성장하겠습니다.아쉬운점 3 글자수 865자1,469Byte
 </t>
         </is>
